--- a/Coursera.xlsx
+++ b/Coursera.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Investment Management with Python and Machine Learning</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>Data Analysis with Python</t>
+  </si>
+  <si>
+    <t>Next Due</t>
+  </si>
+  <si>
+    <t>Days to Next</t>
+  </si>
+  <si>
+    <t>Urgency</t>
   </si>
 </sst>
 </file>
@@ -103,7 +112,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -150,12 +159,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -168,6 +177,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,7 +473,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -459,11 +483,12 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="75.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="12.85546875" style="1" customWidth="1"/>
+    <col min="5" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -473,16 +498,25 @@
       <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -493,36 +527,87 @@
         <v>1</v>
       </c>
       <c r="D3" s="2">
+        <v>43759</v>
+      </c>
+      <c r="E3" s="2">
         <v>43780</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F3" s="8">
+        <f ca="1">IF(D3="","",_xlfn.DAYS(D3,NOW()))</f>
+        <v>3</v>
+      </c>
+      <c r="G3" s="11" t="str">
+        <f ca="1">IF(F3&gt;14,"",IF(F3&gt;7,"Keep an eye on it!",IF(F3&gt;0,"Move your ass!","You're in trouble now!")))</f>
+        <v>Move your ass!</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="8" t="str">
+        <f t="shared" ref="F4:G23" ca="1" si="0">IF(D4="","",_xlfn.DAYS(D4,NOW()))</f>
+        <v/>
+      </c>
+      <c r="G4" s="11" t="str">
+        <f t="shared" ref="G4:G23" ca="1" si="1">IF(F4&gt;14,"",IF(F4&gt;7,"Keep an eye on it!",IF(F4&gt;0,"Move your ass!","You're in trouble now!")))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G5" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G6" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G7" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -530,18 +615,39 @@
         <v>6</v>
       </c>
       <c r="D8" s="2">
+        <v>43766</v>
+      </c>
+      <c r="E8" s="2">
         <v>43801</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F8" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="G8" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Keep an eye on it!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G9" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -549,23 +655,54 @@
         <v>7</v>
       </c>
       <c r="D10" s="2">
+        <v>43752</v>
+      </c>
+      <c r="E10" s="2">
         <v>43801</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F10" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="G10" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>You're in trouble now!</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G11" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G12" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -576,47 +713,115 @@
         <v>2</v>
       </c>
       <c r="D13" s="2">
+        <v>43759</v>
+      </c>
+      <c r="E13" s="2">
         <v>43822</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F13" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G13" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Move your ass!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G14" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G15" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G16" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G17" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>43773</v>
+      </c>
+      <c r="E18" s="2">
+        <v>43797</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G18" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -624,10 +829,21 @@
         <v>4</v>
       </c>
       <c r="D19" s="2">
+        <v>43759</v>
+      </c>
+      <c r="E19" s="2">
         <v>43787</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F19" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="G19" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Move your ass!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>23</v>
       </c>
@@ -638,32 +854,116 @@
         <v>3</v>
       </c>
       <c r="D20" s="2">
+        <v>43780</v>
+      </c>
+      <c r="E20" s="2">
         <v>43808</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F20" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G20" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>43773</v>
+      </c>
+      <c r="E21" s="2">
+        <v>43787</v>
+      </c>
+      <c r="F21" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="G21" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G22" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="1">
         <v>5</v>
       </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
+      </c>
+      <c r="G23" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Coursera.xlsx
+++ b/Coursera.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njathar\Desktop\parcap-github\business-education\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikhil\Desktop\parcap-github\business-education\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E4BAD6-FEA6-4C63-BA85-CE3A074BA0BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38670" windowHeight="11580"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllCourses" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Investment Management with Python and Machine Learning</t>
   </si>
@@ -56,18 +63,6 @@
     <t>Machine Learning</t>
   </si>
   <si>
-    <t>Machine Learning Foundations: A Case Study Approach</t>
-  </si>
-  <si>
-    <t>Machine Learning: Regression</t>
-  </si>
-  <si>
-    <t>Machine Learning: Classification</t>
-  </si>
-  <si>
-    <t>Machine Learning: Clustering and Retrieval</t>
-  </si>
-  <si>
     <t>IBM Data Science</t>
   </si>
   <si>
@@ -105,12 +100,15 @@
   </si>
   <si>
     <t>Urgency</t>
+  </si>
+  <si>
+    <t>Machine Learning - Stanford - Professor Andrew Ng</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
   </numFmts>
@@ -472,8 +470,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -499,16 +497,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -534,7 +532,7 @@
       </c>
       <c r="F3" s="8">
         <f ca="1">IF(D3="","",_xlfn.DAYS(D3,NOW()))</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="11" t="str">
         <f ca="1">IF(F3&gt;14,"",IF(F3&gt;7,"Keep an eye on it!",IF(F3&gt;0,"Move your ass!","You're in trouble now!")))</f>
@@ -551,11 +549,11 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="8" t="str">
-        <f t="shared" ref="F4:G23" ca="1" si="0">IF(D4="","",_xlfn.DAYS(D4,NOW()))</f>
+        <f t="shared" ref="F4:F18" ca="1" si="0">IF(D4="","",_xlfn.DAYS(D4,NOW()))</f>
         <v/>
       </c>
       <c r="G4" s="11" t="str">
-        <f t="shared" ref="G4:G23" ca="1" si="1">IF(F4&gt;14,"",IF(F4&gt;7,"Keep an eye on it!",IF(F4&gt;0,"Move your ass!","You're in trouble now!")))</f>
+        <f t="shared" ref="G4:G18" ca="1" si="1">IF(F4&gt;14,"",IF(F4&gt;7,"Keep an eye on it!",IF(F4&gt;0,"Move your ass!","You're in trouble now!")))</f>
         <v/>
       </c>
     </row>
@@ -609,32 +607,32 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43759</v>
+      </c>
+      <c r="E8" s="2">
+        <v>43822</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G8" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Move your ass!</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="B8" s="1">
-        <v>6</v>
-      </c>
-      <c r="D8" s="2">
-        <v>43766</v>
-      </c>
-      <c r="E8" s="2">
-        <v>43801</v>
-      </c>
-      <c r="F8" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G8" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Keep an eye on it!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1">
-        <v>6</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -649,32 +647,28 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2">
-        <v>43752</v>
-      </c>
-      <c r="E10" s="2">
-        <v>43801</v>
-      </c>
-      <c r="F10" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>-4</v>
+        <v>3</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="G10" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>You're in trouble now!</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -688,8 +682,11 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>9</v>
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -704,56 +701,73 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43773</v>
+      </c>
+      <c r="E13" s="2">
+        <v>43797</v>
+      </c>
+      <c r="F13" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G13" s="11" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43766</v>
+      </c>
+      <c r="E14" s="2">
+        <v>43787</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" ca="1" si="0"/>
         <v>9</v>
       </c>
-      <c r="B13" s="1">
-        <v>11</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>43759</v>
-      </c>
-      <c r="E13" s="2">
-        <v>43822</v>
-      </c>
-      <c r="F13" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G13" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Move your ass!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
       <c r="G14" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Keep an eye on it!</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15" s="1">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
         <v>3</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+      <c r="D15" s="2">
+        <v>43780</v>
+      </c>
+      <c r="E15" s="2">
+        <v>43808</v>
+      </c>
+      <c r="F15" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
       </c>
       <c r="G15" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -762,16 +776,23 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1">
         <v>3</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43773</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43787</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
       </c>
       <c r="G16" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -780,10 +801,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -798,23 +819,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>5</v>
       </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="2">
-        <v>43773</v>
-      </c>
-      <c r="E18" s="2">
-        <v>43797</v>
-      </c>
-      <c r="F18" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="8" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v/>
       </c>
       <c r="G18" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -822,112 +836,34 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1">
-        <v>4</v>
-      </c>
-      <c r="D19" s="2">
-        <v>43759</v>
-      </c>
-      <c r="E19" s="2">
-        <v>43787</v>
-      </c>
-      <c r="F19" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="G19" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Move your ass!</v>
-      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2">
-        <v>43780</v>
-      </c>
-      <c r="E20" s="2">
-        <v>43808</v>
-      </c>
-      <c r="F20" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="G20" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="1">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>43773</v>
-      </c>
-      <c r="E21" s="2">
-        <v>43787</v>
-      </c>
-      <c r="F21" s="8">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="G21" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="12"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="1">
-        <v>6</v>
-      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G22" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="12"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="1">
-        <v>5</v>
-      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v/>
-      </c>
-      <c r="G23" s="11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v/>
-      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="12"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
@@ -935,36 +871,6 @@
       <c r="F24" s="2"/>
       <c r="G24" s="12"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="12"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="12"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="12"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Coursera.xlsx
+++ b/Coursera.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikhil\Desktop\parcap-github\business-education\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E4BAD6-FEA6-4C63-BA85-CE3A074BA0BE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D5E24B-7108-4459-BC0B-8385EF070C9A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,7 +475,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,11 +532,11 @@
       </c>
       <c r="F3" s="8">
         <f ca="1">IF(D3="","",_xlfn.DAYS(D3,NOW()))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G3" s="11" t="str">
         <f ca="1">IF(F3&gt;14,"",IF(F3&gt;7,"Keep an eye on it!",IF(F3&gt;0,"Move your ass!","You're in trouble now!")))</f>
-        <v>Move your ass!</v>
+        <v>You're in trouble now!</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -623,11 +623,11 @@
       </c>
       <c r="F8" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Move your ass!</v>
+        <v>You're in trouble now!</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -707,17 +707,17 @@
         <v>5</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2">
-        <v>43773</v>
+        <v>43780</v>
       </c>
       <c r="E13" s="2">
         <v>43797</v>
       </c>
       <c r="F13" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G13" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -742,11 +742,11 @@
       </c>
       <c r="F14" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G14" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Keep an eye on it!</v>
+        <v>Move your ass!</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -767,7 +767,7 @@
       </c>
       <c r="F15" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G15" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -792,11 +792,11 @@
       </c>
       <c r="F16" s="8">
         <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G16" s="11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Keep an eye on it!</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
